--- a/partnership.xlsx
+++ b/partnership.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\vBox\Business Intelligence - Brandão\BANCO DE DADOS\PARTNER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\CascadeProjects\secure-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466EDFC2-78EE-43D2-A27F-30D049689A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00D7176-19A7-4C6E-88F7-C8581DCE2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29535" yWindow="1785" windowWidth="21600" windowHeight="11505" xr2:uid="{A991E41E-D90C-48BF-BE86-D274B13BBA05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A991E41E-D90C-48BF-BE86-D274B13BBA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Nome Assessor</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Gabriel Ribeiro</t>
-  </si>
-  <si>
-    <t>Walter Alves</t>
   </si>
   <si>
     <t>Manutenção</t>
@@ -632,11 +629,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEB8D4A-C14C-4104-BC57-37D9EFEC7EC2}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,10 +663,10 @@
         <v>79.21875</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,10 +677,10 @@
         <v>57.022471910112358</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +691,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +705,10 @@
         <v>50.514705882352942</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,10 +719,10 @@
         <v>36.928571428571431</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,10 +733,10 @@
         <v>76.418918918918919</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,10 +747,10 @@
         <v>39.582125603864732</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,10 +761,10 @@
         <v>32.5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,10 +775,10 @@
         <v>56.572580645161288</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,10 +789,10 @@
         <v>90.714285714285722</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,10 +803,10 @@
         <v>65.555555555555557</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,24 +817,24 @@
         <v>45.882352941176471</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,10 +845,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,10 +859,10 @@
         <v>47.362204724409452</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,10 +873,10 @@
         <v>67.89473684210526</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,10 +887,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,10 +901,10 @@
         <v>66.785714285714278</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,10 +915,10 @@
         <v>45.420560747663551</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,10 +929,10 @@
         <v>63.523156213704993</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,10 +943,10 @@
         <v>56.78217821782178</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,10 +957,10 @@
         <v>35.535714285714285</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -976,10 +971,10 @@
         <v>27.041666666666668</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,10 +985,10 @@
         <v>43.335249042145591</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,10 +999,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,10 +1013,10 @@
         <v>63.956018518518519</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,10 +1027,10 @@
         <v>87.231404958677686</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,10 +1041,10 @@
         <v>77.142857142857139</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,10 +1055,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,10 +1069,10 @@
         <v>49.25</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,10 +1083,10 @@
         <v>54.208333333333336</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,10 +1097,10 @@
         <v>66.115702479338836</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,10 +1111,10 @@
         <v>32.666666666666671</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,10 +1125,10 @@
         <v>66.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,10 +1139,10 @@
         <v>50.204081632653057</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,10 +1153,10 @@
         <v>34.666666666666671</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,24 +1167,10 @@
         <v>68.792735042735046</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3">
-        <v>10</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
